--- a/downloads/list1_no_colon_frequency.xlsx
+++ b/downloads/list1_no_colon_frequency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t>Ticker</t>
   </si>
@@ -31,12 +31,12 @@
     <t>GOOGL</t>
   </si>
   <si>
+    <t>META</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>META</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
@@ -52,40 +52,49 @@
     <t>V</t>
   </si>
   <si>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>COF</t>
-  </si>
-  <si>
     <t>SCHW</t>
   </si>
   <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>JPM</t>
   </si>
   <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>OXY</t>
   </si>
   <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>UHAL.B</t>
+  </si>
+  <si>
     <t>UNH</t>
   </si>
   <si>
-    <t>UHAL.B</t>
-  </si>
-  <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>SPY</t>
+    <t>ELV</t>
   </si>
   <si>
     <t>BRK.A</t>
@@ -94,1540 +103,1522 @@
     <t>BN</t>
   </si>
   <si>
-    <t>ELV</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>LLY</t>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>FLUT</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>JNJ</t>
   </si>
   <si>
     <t>DHR</t>
   </si>
   <si>
-    <t>FLUT</t>
+    <t>ABT</t>
   </si>
   <si>
     <t>UBER</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>CNQ</t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>DIS</t>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>WTW</t>
+  </si>
+  <si>
+    <t>ET</t>
   </si>
   <si>
     <t>EQT</t>
   </si>
   <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>JNJ</t>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>CSGP</t>
   </si>
   <si>
     <t>AON</t>
   </si>
   <si>
-    <t>CSGP</t>
-  </si>
-  <si>
-    <t>VST</t>
-  </si>
-  <si>
     <t>MELI</t>
   </si>
   <si>
-    <t>ADI</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>BABA</t>
+    <t>GEV</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>TEVA</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>FOX</t>
   </si>
   <si>
     <t>SE</t>
   </si>
   <si>
-    <t>WTW</t>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>VRT</t>
+  </si>
+  <si>
+    <t>OZK</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>IVV</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>CPNG</t>
+  </si>
+  <si>
+    <t>FIS</t>
   </si>
   <si>
     <t>HCC</t>
   </si>
   <si>
-    <t>VAL</t>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>EQX</t>
+  </si>
+  <si>
+    <t>IAG</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>BGC</t>
   </si>
   <si>
     <t>CTSH</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>FANG</t>
-  </si>
-  <si>
-    <t>IVV</t>
-  </si>
-  <si>
-    <t>KLAC</t>
-  </si>
-  <si>
-    <t>AEM</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>TXN</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>TEVA</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>SNX</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>FERG</t>
-  </si>
-  <si>
-    <t>CHTR</t>
-  </si>
-  <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t>CPNG</t>
-  </si>
-  <si>
-    <t>VRT</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>PDD</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>GEV</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>CNH</t>
-  </si>
-  <si>
-    <t>RBLX</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>OZK</t>
-  </si>
-  <si>
-    <t>EPD</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>DE</t>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>MHO</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>PVH</t>
+  </si>
+  <si>
+    <t>DIDIY</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>JOE</t>
+  </si>
+  <si>
+    <t>VOO</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>GTX</t>
+  </si>
+  <si>
+    <t>EXEL</t>
+  </si>
+  <si>
+    <t>KOF</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>GWRE</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>LHX</t>
+  </si>
+  <si>
+    <t>NFG</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>MKSI</t>
+  </si>
+  <si>
+    <t>NTRA</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>MKL</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>LBRDK</t>
   </si>
   <si>
     <t>BA</t>
   </si>
   <si>
-    <t>IAG</t>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>IFF</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>SLM</t>
+  </si>
+  <si>
+    <t>EXE</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>WPM</t>
   </si>
   <si>
     <t>CNR</t>
   </si>
   <si>
-    <t>MKL</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>AMAT</t>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>SYY</t>
   </si>
   <si>
     <t>TDW</t>
   </si>
   <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>BDX</t>
-  </si>
-  <si>
-    <t>MHO</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>SYY</t>
-  </si>
-  <si>
-    <t>EXE</t>
-  </si>
-  <si>
-    <t>AIG</t>
+    <t>COOP</t>
+  </si>
+  <si>
+    <t>TRMB</t>
   </si>
   <si>
     <t>IONS</t>
   </si>
   <si>
-    <t>WPM</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>LAD</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>VOO</t>
-  </si>
-  <si>
-    <t>BMY</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>GTX</t>
-  </si>
-  <si>
-    <t>SLM</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>APA</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>JOE</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>EXEL</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>LBRDK</t>
-  </si>
-  <si>
-    <t>GWRE</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>COOP</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>JCI</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>KOF</t>
-  </si>
-  <si>
-    <t>SNOW</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>EQX</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>SHOP</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>HLT</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>QSR</t>
-  </si>
-  <si>
-    <t>ALLY</t>
-  </si>
-  <si>
-    <t>MKSI</t>
-  </si>
-  <si>
-    <t>BHC</t>
-  </si>
-  <si>
-    <t>IFF</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>GSK</t>
-  </si>
-  <si>
-    <t>NTRA</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>LHX</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>NFG</t>
-  </si>
-  <si>
-    <t>PVH</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>CBRE</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>BGC</t>
-  </si>
-  <si>
-    <t>AMGN</t>
-  </si>
-  <si>
-    <t>DG</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>ROP</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>EFX</t>
-  </si>
-  <si>
-    <t>TRMB</t>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>CFRHF</t>
+  </si>
+  <si>
+    <t>HKHHF</t>
+  </si>
+  <si>
+    <t>NSRGY</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>LBTYK</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>WCC</t>
+  </si>
+  <si>
+    <t>GHC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>ICLR</t>
+  </si>
+  <si>
+    <t>CACC</t>
+  </si>
+  <si>
+    <t>FWONK</t>
+  </si>
+  <si>
+    <t>MTZ</t>
+  </si>
+  <si>
+    <t>RUSHA</t>
+  </si>
+  <si>
+    <t>NMIH</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>KNSL</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>FDS</t>
+  </si>
+  <si>
+    <t>CNXC</t>
+  </si>
+  <si>
+    <t>BKD</t>
+  </si>
+  <si>
+    <t>ADTN</t>
+  </si>
+  <si>
+    <t>GDOT</t>
+  </si>
+  <si>
+    <t>RVSB</t>
+  </si>
+  <si>
+    <t>CRTO</t>
+  </si>
+  <si>
+    <t>PBPB</t>
+  </si>
+  <si>
+    <t>TECK</t>
+  </si>
+  <si>
+    <t>DHT</t>
+  </si>
+  <si>
+    <t>GPK</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>LEN.B</t>
+  </si>
+  <si>
+    <t>FPH</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>FMCC</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>SPNT</t>
+  </si>
+  <si>
+    <t>CRBG</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>JXN</t>
+  </si>
+  <si>
+    <t>GNW</t>
+  </si>
+  <si>
+    <t>EGO</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>TSCO</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>KBR</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>BHF</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>GRBK</t>
+  </si>
+  <si>
+    <t>SGI</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>LOAR</t>
+  </si>
+  <si>
+    <t>LYV</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>ESAB</t>
+  </si>
+  <si>
+    <t>ENOV</t>
+  </si>
+  <si>
+    <t>UFPI</t>
+  </si>
+  <si>
+    <t>JBTM</t>
+  </si>
+  <si>
+    <t>FNMA</t>
+  </si>
+  <si>
+    <t>GFL</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>SEIC</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>EXCE</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>GLNG</t>
+  </si>
+  <si>
+    <t>STLA</t>
+  </si>
+  <si>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>CRSP</t>
+  </si>
+  <si>
+    <t>CRCL</t>
+  </si>
+  <si>
+    <t>ROKU</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>CZR</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>JBLU</t>
+  </si>
+  <si>
+    <t>CTRI</t>
+  </si>
+  <si>
+    <t>UAN</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>RYAAY</t>
+  </si>
+  <si>
+    <t>OMF</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>IBKR</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>TRMD</t>
+  </si>
+  <si>
+    <t>SWX</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>IEP</t>
+  </si>
+  <si>
+    <t>OTEX</t>
+  </si>
+  <si>
+    <t>TIGO</t>
+  </si>
+  <si>
+    <t>GRFS</t>
+  </si>
+  <si>
+    <t>CORZ</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>SATS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>WDAY</t>
+  </si>
+  <si>
+    <t>FFIV</t>
+  </si>
+  <si>
+    <t>ARGX</t>
+  </si>
+  <si>
+    <t>XBI</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>EHAB</t>
+  </si>
+  <si>
+    <t>WEX</t>
+  </si>
+  <si>
+    <t>FRPT</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>MRCY</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>VIST</t>
+  </si>
+  <si>
+    <t>RWAY</t>
+  </si>
+  <si>
+    <t>STKL</t>
+  </si>
+  <si>
+    <t>INDV</t>
+  </si>
+  <si>
+    <t>UNFI</t>
+  </si>
+  <si>
+    <t>GVLU</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>HTZ</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>GSPY</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>MPWR</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>SNDK</t>
+  </si>
+  <si>
+    <t>OSW</t>
+  </si>
+  <si>
+    <t>LAZ</t>
+  </si>
+  <si>
+    <t>SPHR</t>
+  </si>
+  <si>
+    <t>MSGE</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>THRY</t>
+  </si>
+  <si>
+    <t>THM</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>AAMI</t>
+  </si>
+  <si>
+    <t>PPTA</t>
+  </si>
+  <si>
+    <t>MDGL</t>
+  </si>
+  <si>
+    <t>ATEN</t>
+  </si>
+  <si>
+    <t>PTCT</t>
+  </si>
+  <si>
+    <t>TGTX</t>
+  </si>
+  <si>
+    <t>CPB</t>
+  </si>
+  <si>
+    <t>CXT</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>COLB</t>
+  </si>
+  <si>
+    <t>KLG</t>
+  </si>
+  <si>
+    <t>ENSG</t>
+  </si>
+  <si>
+    <t>PRGO</t>
+  </si>
+  <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>OGN</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>FLG</t>
+  </si>
+  <si>
+    <t>BAYRY</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>JLL</t>
+  </si>
+  <si>
+    <t>GNRC</t>
+  </si>
+  <si>
+    <t>AMG</t>
+  </si>
+  <si>
+    <t>KVUE</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>BPOP</t>
+  </si>
+  <si>
+    <t>UTHR</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>KDP</t>
+  </si>
+  <si>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>USFD</t>
+  </si>
+  <si>
+    <t>ALIT</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>THC</t>
+  </si>
+  <si>
+    <t>IEF</t>
+  </si>
+  <si>
+    <t>VCIT</t>
+  </si>
+  <si>
+    <t>ATMU</t>
+  </si>
+  <si>
+    <t>HSIC</t>
+  </si>
+  <si>
+    <t>XMTR</t>
+  </si>
+  <si>
+    <t>RELY</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>EWBC</t>
+  </si>
+  <si>
+    <t>RRX</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>WSC</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t>CNX</t>
+  </si>
+  <si>
+    <t>BUD</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>WBD</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>MSGS</t>
+  </si>
+  <si>
+    <t>HRI</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>GATX</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>SXT</t>
+  </si>
+  <si>
+    <t>SAFE</t>
+  </si>
+  <si>
+    <t>BRKRP.PFD</t>
+  </si>
+  <si>
+    <t>CRK</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>COHR</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>BBIO</t>
+  </si>
+  <si>
+    <t>FTV</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>MOH</t>
+  </si>
+  <si>
+    <t>LEGN</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>REGN</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>SOLV</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>JHG</t>
+  </si>
+  <si>
+    <t>CBOE</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>FNV</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>GBTC</t>
+  </si>
+  <si>
+    <t>TPL</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>TSQ</t>
+  </si>
+  <si>
+    <t>HAYW</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>ORLA</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>CRWV</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>FYBR</t>
+  </si>
+  <si>
+    <t>IBIT</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>GEHC</t>
+  </si>
+  <si>
+    <t>UHAL</t>
+  </si>
+  <si>
+    <t>IVZ</t>
+  </si>
+  <si>
+    <t>VRSN</t>
+  </si>
+  <si>
+    <t>IEMG</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ASUR</t>
+  </si>
+  <si>
+    <t>ECNCF</t>
+  </si>
+  <si>
+    <t>LNTH</t>
+  </si>
+  <si>
+    <t>BBSI</t>
+  </si>
+  <si>
+    <t>HROW</t>
+  </si>
+  <si>
+    <t>QNST</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>UAA</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>ATS</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>AVTR</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>VNT</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>MNDY</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>BROS</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>SFM</t>
+  </si>
+  <si>
+    <t>IDXX</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ALGT</t>
+  </si>
+  <si>
+    <t>GSL</t>
+  </si>
+  <si>
+    <t>HBM</t>
+  </si>
+  <si>
+    <t>VALE</t>
+  </si>
+  <si>
+    <t>DVA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>ACGL</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>LKQ</t>
+  </si>
+  <si>
+    <t>ALV</t>
+  </si>
+  <si>
+    <t>ITOT</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>CVNA</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>LPLA</t>
+  </si>
+  <si>
+    <t>ENTG</t>
+  </si>
+  <si>
+    <t>WWD</t>
+  </si>
+  <si>
+    <t>INSM</t>
+  </si>
+  <si>
+    <t>NVR</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>ARW</t>
+  </si>
+  <si>
+    <t>OSK</t>
+  </si>
+  <si>
+    <t>REVG</t>
   </si>
   <si>
     <t>SFBS</t>
   </si>
   <si>
-    <t>COHR</t>
-  </si>
-  <si>
-    <t>PHYS</t>
-  </si>
-  <si>
-    <t>BBIO</t>
-  </si>
-  <si>
-    <t>FTV</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>ORLY</t>
-  </si>
-  <si>
-    <t>UTHR</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>GRFS</t>
-  </si>
-  <si>
-    <t>ERJ</t>
-  </si>
-  <si>
-    <t>CAE</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>ECL</t>
-  </si>
-  <si>
-    <t>OTEX</t>
-  </si>
-  <si>
-    <t>TIGO</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>CRSP</t>
-  </si>
-  <si>
-    <t>CRCL</t>
-  </si>
-  <si>
-    <t>ROKU</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>CZR</t>
-  </si>
-  <si>
-    <t>AEP</t>
-  </si>
-  <si>
-    <t>JBLU</t>
-  </si>
-  <si>
-    <t>CTRI</t>
-  </si>
-  <si>
-    <t>UAN</t>
-  </si>
-  <si>
-    <t>HAE</t>
-  </si>
-  <si>
-    <t>ACA</t>
-  </si>
-  <si>
-    <t>SEIC</t>
-  </si>
-  <si>
-    <t>MGM</t>
-  </si>
-  <si>
-    <t>EXCE</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>GRBK</t>
-  </si>
-  <si>
-    <t>SGI</t>
-  </si>
-  <si>
-    <t>ABG</t>
-  </si>
-  <si>
-    <t>LOAR</t>
-  </si>
-  <si>
-    <t>LYV</t>
-  </si>
-  <si>
-    <t>PCG</t>
-  </si>
-  <si>
-    <t>ESAB</t>
-  </si>
-  <si>
-    <t>ENOV</t>
-  </si>
-  <si>
-    <t>UFPI</t>
-  </si>
-  <si>
-    <t>JBTM</t>
-  </si>
-  <si>
-    <t>AGO</t>
-  </si>
-  <si>
-    <t>BKD</t>
-  </si>
-  <si>
-    <t>ADTN</t>
-  </si>
-  <si>
-    <t>GDOT</t>
-  </si>
-  <si>
-    <t>RVSB</t>
-  </si>
-  <si>
-    <t>CRTO</t>
-  </si>
-  <si>
-    <t>PBPB</t>
-  </si>
-  <si>
-    <t>TECK</t>
-  </si>
-  <si>
-    <t>DHT</t>
-  </si>
-  <si>
-    <t>GPK</t>
-  </si>
-  <si>
-    <t>PENN</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>HTZ</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>BPOP</t>
-  </si>
-  <si>
-    <t>BHF</t>
-  </si>
-  <si>
-    <t>FLR</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>TSCO</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>KBR</t>
-  </si>
-  <si>
-    <t>CNXC</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>SPNT</t>
-  </si>
-  <si>
-    <t>CRBG</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>JXN</t>
-  </si>
-  <si>
-    <t>GNW</t>
-  </si>
-  <si>
-    <t>EGO</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>KDP</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>SYF</t>
-  </si>
-  <si>
-    <t>SIRI</t>
-  </si>
-  <si>
-    <t>HCA</t>
-  </si>
-  <si>
-    <t>IMO</t>
-  </si>
-  <si>
-    <t>FNMA</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>FMCC</t>
-  </si>
-  <si>
-    <t>RYAAY</t>
-  </si>
-  <si>
-    <t>OMF</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>IBKR</t>
-  </si>
-  <si>
-    <t>GFL</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>AXON</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>GLNG</t>
-  </si>
-  <si>
-    <t>STLA</t>
-  </si>
-  <si>
-    <t>RWAY</t>
-  </si>
-  <si>
-    <t>STKL</t>
-  </si>
-  <si>
-    <t>INDV</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>TRMD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>FFIV</t>
-  </si>
-  <si>
-    <t>MRP</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>ARGX</t>
-  </si>
-  <si>
-    <t>XBI</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>IWM</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>EHAB</t>
-  </si>
-  <si>
-    <t>WEX</t>
-  </si>
-  <si>
-    <t>FRPT</t>
-  </si>
-  <si>
-    <t>THS</t>
-  </si>
-  <si>
-    <t>RPD</t>
-  </si>
-  <si>
-    <t>CORZ</t>
-  </si>
-  <si>
-    <t>ALGT</t>
-  </si>
-  <si>
-    <t>GSL</t>
-  </si>
-  <si>
-    <t>HBM</t>
-  </si>
-  <si>
-    <t>VALE</t>
-  </si>
-  <si>
-    <t>CRK</t>
-  </si>
-  <si>
-    <t>MRCY</t>
-  </si>
-  <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>VIST</t>
-  </si>
-  <si>
-    <t>TGTX</t>
-  </si>
-  <si>
-    <t>CPB</t>
-  </si>
-  <si>
-    <t>UNFI</t>
-  </si>
-  <si>
-    <t>GVLU</t>
-  </si>
-  <si>
-    <t>GSPY</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>MPWR</t>
-  </si>
-  <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>SNDK</t>
-  </si>
-  <si>
-    <t>OSW</t>
-  </si>
-  <si>
-    <t>LAZ</t>
-  </si>
-  <si>
-    <t>HKHHF</t>
-  </si>
-  <si>
-    <t>SPHR</t>
-  </si>
-  <si>
-    <t>MSGE</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>THRY</t>
-  </si>
-  <si>
-    <t>THM</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>AAMI</t>
-  </si>
-  <si>
-    <t>PPTA</t>
-  </si>
-  <si>
-    <t>MDGL</t>
-  </si>
-  <si>
-    <t>ATEN</t>
-  </si>
-  <si>
-    <t>PTCT</t>
-  </si>
-  <si>
-    <t>SSB</t>
-  </si>
-  <si>
-    <t>COLB</t>
-  </si>
-  <si>
-    <t>KLG</t>
-  </si>
-  <si>
-    <t>ENSG</t>
-  </si>
-  <si>
-    <t>PRGO</t>
-  </si>
-  <si>
-    <t>VTI</t>
-  </si>
-  <si>
-    <t>CFRHF</t>
-  </si>
-  <si>
-    <t>IDT</t>
-  </si>
-  <si>
-    <t>OGN</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>FLG</t>
-  </si>
-  <si>
-    <t>BAYRY</t>
-  </si>
-  <si>
-    <t>NCLH</t>
-  </si>
-  <si>
-    <t>JLL</t>
-  </si>
-  <si>
-    <t>GNRC</t>
-  </si>
-  <si>
-    <t>AMG</t>
-  </si>
-  <si>
-    <t>WSC</t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>APO</t>
-  </si>
-  <si>
-    <t>KVUE</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>USFD</t>
-  </si>
-  <si>
-    <t>ALIT</t>
-  </si>
-  <si>
-    <t>GTM</t>
-  </si>
-  <si>
-    <t>GPN</t>
-  </si>
-  <si>
-    <t>THC</t>
-  </si>
-  <si>
-    <t>PLD</t>
-  </si>
-  <si>
-    <t>IEF</t>
-  </si>
-  <si>
-    <t>VCIT</t>
-  </si>
-  <si>
-    <t>CXT</t>
-  </si>
-  <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t>SXT</t>
-  </si>
-  <si>
-    <t>ATMU</t>
-  </si>
-  <si>
-    <t>HSIC</t>
-  </si>
-  <si>
-    <t>XMTR</t>
-  </si>
-  <si>
-    <t>RELY</t>
-  </si>
-  <si>
-    <t>TKO</t>
-  </si>
-  <si>
-    <t>LEN.B</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>CSX</t>
-  </si>
-  <si>
-    <t>UBS</t>
-  </si>
-  <si>
-    <t>MDY</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>EWBC</t>
-  </si>
-  <si>
-    <t>RRX</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>CNX</t>
-  </si>
-  <si>
-    <t>BUD</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>WBD</t>
-  </si>
-  <si>
-    <t>FPH</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>KMB</t>
-  </si>
-  <si>
-    <t>MSGS</t>
-  </si>
-  <si>
-    <t>HRI</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>GATX</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>TSQ</t>
-  </si>
-  <si>
-    <t>HAYW</t>
-  </si>
-  <si>
-    <t>SAFE</t>
-  </si>
-  <si>
-    <t>BRKRP.PFD</t>
-  </si>
-  <si>
-    <t>LULU</t>
-  </si>
-  <si>
-    <t>MOH</t>
-  </si>
-  <si>
-    <t>YMM</t>
-  </si>
-  <si>
-    <t>LEGN</t>
-  </si>
-  <si>
-    <t>DIDIY</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>REGN</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>WEN</t>
-  </si>
-  <si>
-    <t>SOLV</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>JHG</t>
-  </si>
-  <si>
-    <t>CBOE</t>
-  </si>
-  <si>
-    <t>LNG</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>FNV</t>
-  </si>
-  <si>
-    <t>HE</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>GBTC</t>
-  </si>
-  <si>
-    <t>TPL</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>ARW</t>
-  </si>
-  <si>
-    <t>AMR</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>CEG</t>
-  </si>
-  <si>
-    <t>CRWV</t>
-  </si>
-  <si>
-    <t>CPRT</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>FYBR</t>
-  </si>
-  <si>
-    <t>IBIT</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>SPGI</t>
-  </si>
-  <si>
-    <t>ANET</t>
-  </si>
-  <si>
-    <t>GEHC</t>
-  </si>
-  <si>
-    <t>IEP</t>
-  </si>
-  <si>
-    <t>UHAL</t>
-  </si>
-  <si>
-    <t>IVZ</t>
-  </si>
-  <si>
-    <t>ECNCF</t>
-  </si>
-  <si>
-    <t>INSM</t>
-  </si>
-  <si>
-    <t>LNTH</t>
-  </si>
-  <si>
-    <t>BBSI</t>
-  </si>
-  <si>
-    <t>HROW</t>
-  </si>
-  <si>
-    <t>QNST</t>
-  </si>
-  <si>
-    <t>AZN</t>
+    <t>UGI</t>
+  </si>
+  <si>
+    <t>RLI</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>CFLT</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t>LLYVK</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>UAA</t>
-  </si>
-  <si>
-    <t>TAP</t>
-  </si>
-  <si>
-    <t>ATS</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>CLF</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>ORLA</t>
-  </si>
-  <si>
-    <t>BROS</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>SWKS</t>
-  </si>
-  <si>
-    <t>HUM</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>CVNA</t>
-  </si>
-  <si>
-    <t>MGA</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>SFM</t>
-  </si>
-  <si>
-    <t>VRSN</t>
-  </si>
-  <si>
-    <t>IEMG</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>ASUR</t>
-  </si>
-  <si>
-    <t>MTN</t>
-  </si>
-  <si>
-    <t>FDS</t>
-  </si>
-  <si>
-    <t>IDXX</t>
-  </si>
-  <si>
-    <t>MSCI</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>ACGL</t>
-  </si>
-  <si>
-    <t>OMC</t>
-  </si>
-  <si>
-    <t>ABM</t>
-  </si>
-  <si>
-    <t>LKQ</t>
-  </si>
-  <si>
-    <t>AVTR</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>VNT</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>MNDY</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>DHI</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>LBTYK</t>
-  </si>
-  <si>
-    <t>CRH</t>
-  </si>
-  <si>
-    <t>WCC</t>
-  </si>
-  <si>
-    <t>GHC</t>
-  </si>
-  <si>
-    <t>INTU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>ICLR</t>
-  </si>
-  <si>
-    <t>CACC</t>
-  </si>
-  <si>
-    <t>FWONK</t>
-  </si>
-  <si>
-    <t>MTZ</t>
-  </si>
-  <si>
-    <t>RUSHA</t>
-  </si>
-  <si>
-    <t>NMIH</t>
-  </si>
-  <si>
-    <t>MCK</t>
-  </si>
-  <si>
-    <t>KNSL</t>
-  </si>
-  <si>
-    <t>UGI</t>
-  </si>
-  <si>
-    <t>RLI</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>IDCC</t>
-  </si>
-  <si>
-    <t>CFLT</t>
-  </si>
-  <si>
-    <t>MDB</t>
-  </si>
-  <si>
-    <t>BIIB</t>
-  </si>
-  <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>NVR</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>ITOT</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>NWSA</t>
-  </si>
-  <si>
-    <t>DVA</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>ISRG</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>RKT</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>LPLA</t>
-  </si>
-  <si>
-    <t>REI</t>
-  </si>
-  <si>
-    <t>ALV</t>
-  </si>
-  <si>
-    <t>ENTG</t>
-  </si>
-  <si>
     <t>NSIT</t>
   </si>
   <si>
     <t>NVST</t>
-  </si>
-  <si>
-    <t>WWD</t>
-  </si>
-  <si>
-    <t>PRM</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>SATS</t>
-  </si>
-  <si>
-    <t>OSK</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>REVG</t>
-  </si>
-  <si>
-    <t>STE</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CNI</t>
-  </si>
-  <si>
-    <t>SWX</t>
-  </si>
-  <si>
-    <t>CVI</t>
-  </si>
-  <si>
-    <t>NSRGY</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2292,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2380,7 +2371,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2708,7 +2699,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3380,7 +3371,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3388,7 +3379,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -6260,30 +6251,6 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" t="s">
-        <v>535</v>
-      </c>
-      <c r="B535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" t="s">
-        <v>536</v>
-      </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" t="s">
-        <v>537</v>
-      </c>
-      <c r="B537">
         <v>1</v>
       </c>
     </row>
